--- a/public/data/db-source/variable.xlsx
+++ b/public/data/db-source/variable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bassim/code/datannur/datannur_dev/public/data/db_source/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bassim/code/datannur/datannur_dev/public/data/db-source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B69D60-6FBC-1348-A649-E02B35F90D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39201AB7-E649-8F4D-9C1C-932AF0C8BD3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3892,10 +3892,10 @@
     <t>ser_pub_loc___variable_10, ser_pub_loc___variable_11</t>
   </si>
   <si>
-    <t>sourceVar_ids</t>
-  </si>
-  <si>
     <t>accident_route___variable_7, dep_sante___variable_7</t>
+  </si>
+  <si>
+    <t>source_var_ids</t>
   </si>
 </sst>
 </file>
@@ -3982,7 +3982,7 @@
     <tableColumn id="12" xr3:uid="{113E5C5D-89D6-9C42-8737-7B27E528F557}" name="modality_ids"/>
     <tableColumn id="13" xr3:uid="{0D9C543A-3D7D-A74A-A543-90491A90EB94}" name="tag_ids"/>
     <tableColumn id="14" xr3:uid="{80B52D4C-5640-6240-939A-6DC6F1F2147C}" name="key"/>
-    <tableColumn id="15" xr3:uid="{8C4309FC-4A37-1243-B760-EBAD68048C78}" name="sourceVar_ids"/>
+    <tableColumn id="15" xr3:uid="{8C4309FC-4A37-1243-B760-EBAD68048C78}" name="source_var_ids"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4278,10 +4278,10 @@
   <dimension ref="A1:O602"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M55" sqref="M55"/>
+      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4346,7 +4346,7 @@
         <v>1288</v>
       </c>
       <c r="O1" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -4650,7 +4650,7 @@
         <v>37</v>
       </c>
       <c r="O15" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -4670,7 +4670,7 @@
         <v>39</v>
       </c>
       <c r="O16" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
